--- a/RCS Single Stream first test (03-10-2015)/Calibration/Sensor Calibration.xlsx
+++ b/RCS Single Stream first test (03-10-2015)/Calibration/Sensor Calibration.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\khensu\Home07\bwiles\Desktop\RCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jeremy's Stuff\GitHub\reaction-control\RCS Single Stream first test (03-10-2015)\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pressure" sheetId="1" r:id="rId1"/>
@@ -261,11 +261,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385504936"/>
-        <c:axId val="385504544"/>
+        <c:axId val="397959920"/>
+        <c:axId val="397957176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385504936"/>
+        <c:axId val="397959920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -322,12 +322,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385504544"/>
+        <c:crossAx val="397957176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385504544"/>
+        <c:axId val="397957176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,7 +384,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385504936"/>
+        <c:crossAx val="397959920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -618,11 +618,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453942280"/>
-        <c:axId val="453941888"/>
+        <c:axId val="397955608"/>
+        <c:axId val="397956784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453942280"/>
+        <c:axId val="397955608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,12 +679,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453941888"/>
+        <c:crossAx val="397956784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453941888"/>
+        <c:axId val="397956784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453942280"/>
+        <c:crossAx val="397955608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2237,13 +2237,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>2.4649178483033909</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0.99647200000000002</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0.996143</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0.99581399999999998</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.99548499999999995</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0.996143</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>0.99482700000000002</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0.99581399999999998</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0.99351199999999995</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0.99647200000000002</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0.996143</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0.99680100000000005</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0.996143</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0.99548499999999995</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>0.99680100000000005</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0.99581399999999998</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>0.996143</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>0.99647200000000002</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>0.99712999999999996</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>0.996143</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>0.99515600000000004</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>0.99647200000000002</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>0.99548499999999995</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>0.99647200000000002</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>0.99680100000000005</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>0.99680100000000005</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>0.99680100000000005</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>0.99647200000000002</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>0.99515600000000004</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>0.99712999999999996</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>0.99482700000000002</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>0.99548499999999995</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>0.99680100000000005</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>0.99647200000000002</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>0.99581399999999998</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>0.99515600000000004</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>0.99680100000000005</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>0.99647200000000002</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>0.99515600000000004</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>0.99548499999999995</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>0.99548499999999995</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>0.99581399999999998</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>0.996143</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>0.996143</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>0.99548499999999995</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>0.99548499999999995</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>0.99515600000000004</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>0.996143</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>0.996143</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>0.99515600000000004</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>0.996143</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>0.99548499999999995</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>0.99647200000000002</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>0.998116</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>0.99680100000000005</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>0.99482700000000002</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>0.99581399999999998</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>0.99482700000000002</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>0.99482700000000002</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>0.99647200000000002</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>0.99647200000000002</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>0.996143</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>0.99581399999999998</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>0.99581399999999998</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>0.99745799999999996</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>0.99482700000000002</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>0.99482700000000002</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>0.99712999999999996</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>0.99712999999999996</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>0.99680100000000005</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>0.996143</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>0.99548499999999995</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>0.99647200000000002</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>0.99482700000000002</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>0.99712999999999996</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>0.996143</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>0.996143</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>0.99647200000000002</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>0.99712999999999996</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>0.99482700000000002</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>0.996143</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>0.99548499999999995</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>0.99548499999999995</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>0.99680100000000005</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>0.99581399999999998</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>0.99647200000000002</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>0.996143</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>0.99482700000000002</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>0.99647200000000002</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>0.99712999999999996</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>0.99548499999999995</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>0.99515600000000004</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>2.4666869999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>0.996143</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>0.99680100000000005</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>0.99482700000000002</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>0.99482700000000002</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>2.463069</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>0.99449799999999999</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>0.99581399999999998</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>0.99647200000000002</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>0.99548499999999995</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>0.99581399999999998</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>0.99680100000000005</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>0.99548499999999995</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>0.99680100000000005</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>0.99548499999999995</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>0.99581399999999998</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>0.99581399999999998</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B110">
         <v>0.99548499999999995</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>0.996143</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>0.996143</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>0.99647200000000002</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>0.99647200000000002</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>0.99515600000000004</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B116">
         <v>0.998116</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>0.99548499999999995</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B118">
         <v>0.99680100000000005</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>2.4633980000000002</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B119">
         <v>0.99647200000000002</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>0.99515600000000004</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B121">
         <v>0.99548499999999995</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B122">
         <v>0.99548499999999995</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>0.99548499999999995</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B124">
         <v>0.99548499999999995</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>0.99680100000000005</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>0.99680100000000005</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>0.99548499999999995</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>0.99548499999999995</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>0.99515600000000004</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>0.99647200000000002</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B131">
         <v>0.99548499999999995</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B132">
         <v>0.99581399999999998</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>0.99548499999999995</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B134">
         <v>0.99647200000000002</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B135">
         <v>0.99548499999999995</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>0.996143</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>0.996143</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>0.99680100000000005</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>0.99548499999999995</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B140">
         <v>0.99515600000000004</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>0.99548499999999995</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B142">
         <v>0.99581399999999998</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>0.99482700000000002</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>0.99548499999999995</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>0.99712999999999996</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B146">
         <v>0.99515600000000004</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>0.99548499999999995</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B148">
         <v>0.99449799999999999</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>0.99482700000000002</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B150">
         <v>0.99647200000000002</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151">
         <v>0.996143</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B152">
         <v>0.99548499999999995</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B153">
         <v>0.99680100000000005</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>2.4633980000000002</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B154">
         <v>0.99449799999999999</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>0.99647200000000002</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B156">
         <v>0.99515600000000004</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B157">
         <v>0.99548499999999995</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>0.99581399999999998</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B159">
         <v>0.99482700000000002</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B160">
         <v>0.99581399999999998</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>0.99515600000000004</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>0.99712999999999996</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>0.99647200000000002</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>0.99680100000000005</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>0.99581399999999998</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B166">
         <v>0.99680100000000005</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>0.99548499999999995</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>0.996143</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>0.99778699999999998</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>0.996143</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>0.99680100000000005</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>0.99647200000000002</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>0.99778699999999998</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B174">
         <v>0.99581399999999998</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>0.996143</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>0.99581399999999998</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>0.996143</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>0.99581399999999998</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>0.99647200000000002</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>0.99548499999999995</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>0.99581399999999998</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>0.99647200000000002</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>0.996143</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>0.99482700000000002</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>0.99515600000000004</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>0.99680100000000005</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>0.99712999999999996</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>0.996143</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>0.99581399999999998</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>0.99581399999999998</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>0.99515600000000004</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>0.99712999999999996</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>0.99548499999999995</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>0.99482700000000002</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B195">
         <v>0.996143</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>0.99548499999999995</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>0.99515600000000004</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>0.996143</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>0.99482700000000002</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>0.99515600000000004</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>0.99548499999999995</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>0.99548499999999995</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B203">
         <v>0.996143</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B204">
         <v>0.99416899999999997</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B205">
         <v>0.99581399999999998</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B206">
         <v>0.99647200000000002</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B207">
         <v>0.99680100000000005</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B208">
         <v>0.99680100000000005</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>2.4633980000000002</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B209">
         <v>0.99548499999999995</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B210">
         <v>0.99515600000000004</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B211">
         <v>0.996143</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B212">
         <v>0.99548499999999995</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B213">
         <v>0.99548499999999995</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>2.4633980000000002</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B214">
         <v>0.99581399999999998</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B215">
         <v>0.99416899999999997</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B216">
         <v>0.99548499999999995</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B217">
         <v>0.99515600000000004</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B218">
         <v>0.99548499999999995</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B219">
         <v>0.99712999999999996</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B220">
         <v>0.99515600000000004</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B221">
         <v>0.99548499999999995</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B222">
         <v>0.99581399999999998</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B223">
         <v>0.99515600000000004</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>2.4633980000000002</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B224">
         <v>0.99548499999999995</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B225">
         <v>0.996143</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B226">
         <v>0.996143</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B227">
         <v>0.99647200000000002</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B228">
         <v>0.99647200000000002</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B229">
         <v>0.99581399999999998</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B230">
         <v>0.99515600000000004</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B231">
         <v>0.99581399999999998</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B232">
         <v>0.99680100000000005</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B233">
         <v>0.99548499999999995</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B234">
         <v>0.99712999999999996</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B235">
         <v>0.99515600000000004</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B236">
         <v>0.99482700000000002</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B237">
         <v>0.996143</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B238">
         <v>0.99647200000000002</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B239">
         <v>0.99712999999999996</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B240">
         <v>0.99515600000000004</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B241">
         <v>0.99581399999999998</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B242">
         <v>0.996143</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B243">
         <v>0.99548499999999995</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B244">
         <v>0.99482700000000002</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B245">
         <v>0.996143</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B246">
         <v>0.99712999999999996</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B247">
         <v>0.99515600000000004</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B248">
         <v>0.99548499999999995</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B249">
         <v>0.996143</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B250">
         <v>0.99647200000000002</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B251">
         <v>0.99680100000000005</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B252">
         <v>0.99647200000000002</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B253">
         <v>0.99581399999999998</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B254">
         <v>0.99680100000000005</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B255">
         <v>0.996143</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B256">
         <v>0.99581399999999998</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B257">
         <v>0.996143</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B258">
         <v>0.99712999999999996</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B259">
         <v>0.99449799999999999</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B260">
         <v>0.99548499999999995</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B261">
         <v>0.99482700000000002</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B262">
         <v>0.996143</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B263">
         <v>0.99548499999999995</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B264">
         <v>0.99548499999999995</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B265">
         <v>0.99581399999999998</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B266">
         <v>0.99548499999999995</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B267">
         <v>0.996143</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B268">
         <v>0.99515600000000004</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B269">
         <v>0.99581399999999998</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B270">
         <v>0.99548499999999995</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B271">
         <v>0.99680100000000005</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B272">
         <v>0.99548499999999995</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B273">
         <v>0.99515600000000004</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B274">
         <v>0.99647200000000002</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B275">
         <v>0.996143</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B276">
         <v>0.99647200000000002</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B277">
         <v>0.996143</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B278">
         <v>0.99548499999999995</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B279">
         <v>0.99515600000000004</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B280">
         <v>0.99647200000000002</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B281">
         <v>0.99680100000000005</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B282">
         <v>0.99647200000000002</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B283">
         <v>0.99548499999999995</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B284">
         <v>0.99680100000000005</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B285">
         <v>0.99581399999999998</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B286">
         <v>0.99515600000000004</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B287">
         <v>0.996143</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B288">
         <v>0.99515600000000004</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B289">
         <v>0.99680100000000005</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B290">
         <v>0.996143</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B291">
         <v>0.99581399999999998</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B292">
         <v>0.99581399999999998</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B293">
         <v>0.99647200000000002</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B294">
         <v>0.99548499999999995</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B295">
         <v>0.99712999999999996</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B296">
         <v>0.99647200000000002</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B297">
         <v>0.99548499999999995</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B298">
         <v>0.99581399999999998</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B299">
         <v>0.99581399999999998</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B300">
         <v>0.99515600000000004</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B301">
         <v>0.996143</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B302">
         <v>0.99482700000000002</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B303">
         <v>0.99515600000000004</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B304">
         <v>0.99581399999999998</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B305">
         <v>0.99680100000000005</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B306">
         <v>0.99548499999999995</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B307">
         <v>0.99548499999999995</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B308">
         <v>0.99712999999999996</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B309">
         <v>0.99647200000000002</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B310">
         <v>0.99647200000000002</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B311">
         <v>0.99482700000000002</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B312">
         <v>0.99515600000000004</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B313">
         <v>0.99449799999999999</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>2.4633980000000002</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B314">
         <v>0.99581399999999998</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B315">
         <v>0.99581399999999998</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B316">
         <v>0.996143</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B317">
         <v>0.99548499999999995</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B318">
         <v>0.99482700000000002</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B319">
         <v>0.99647200000000002</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B320">
         <v>0.99482700000000002</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B321">
         <v>0.996143</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B322">
         <v>0.99548499999999995</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B323">
         <v>0.99548499999999995</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B324">
         <v>0.99548499999999995</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B325">
         <v>0.99515600000000004</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B326">
         <v>0.99548499999999995</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B327">
         <v>0.99581399999999998</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B328">
         <v>0.99548499999999995</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B329">
         <v>0.996143</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B330">
         <v>0.99581399999999998</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B331">
         <v>0.99581399999999998</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B332">
         <v>0.99548499999999995</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B333">
         <v>0.996143</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B334">
         <v>0.99647200000000002</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B335">
         <v>0.99712999999999996</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B336">
         <v>0.99581399999999998</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B337">
         <v>0.99449799999999999</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B338">
         <v>0.99647200000000002</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B339">
         <v>0.996143</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B340">
         <v>0.99778699999999998</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B341">
         <v>0.99581399999999998</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B342">
         <v>0.99515600000000004</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B343">
         <v>0.99647200000000002</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B344">
         <v>0.99548499999999995</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B345">
         <v>0.99647200000000002</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B346">
         <v>0.99647200000000002</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B347">
         <v>0.99548499999999995</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B348">
         <v>0.99548499999999995</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B349">
         <v>0.99416899999999997</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B350">
         <v>0.99548499999999995</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B351">
         <v>0.99680100000000005</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B352">
         <v>0.99449799999999999</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B353">
         <v>0.99548499999999995</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>2.4633980000000002</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B354">
         <v>0.99548499999999995</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B355">
         <v>0.996143</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B356">
         <v>0.99712999999999996</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B357">
         <v>0.99548499999999995</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B358">
         <v>0.99647200000000002</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B359">
         <v>0.99712999999999996</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B360">
         <v>0.99449799999999999</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>2.463069</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B361">
         <v>0.99449799999999999</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B362">
         <v>0.996143</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B363">
         <v>0.99482700000000002</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B364">
         <v>0.996143</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B365">
         <v>0.99548499999999995</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B366">
         <v>0.996143</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B367">
         <v>0.99680100000000005</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B368">
         <v>0.99548499999999995</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>2.463069</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B369">
         <v>0.996143</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B370">
         <v>0.99647200000000002</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B371">
         <v>0.99482700000000002</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B372">
         <v>0.996143</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B373">
         <v>0.99647200000000002</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B374">
         <v>0.99712999999999996</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B375">
         <v>0.99548499999999995</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B376">
         <v>0.996143</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B377">
         <v>0.99548499999999995</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B378">
         <v>0.99548499999999995</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B379">
         <v>0.99515600000000004</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>2.4666869999999999</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B380">
         <v>0.99778699999999998</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B381">
         <v>0.99581399999999998</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B382">
         <v>0.99383999999999995</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B383">
         <v>0.99647200000000002</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B384">
         <v>0.996143</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B385">
         <v>0.99581399999999998</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B386">
         <v>0.99712999999999996</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B387">
         <v>0.99680100000000005</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B388">
         <v>0.99647200000000002</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B389">
         <v>0.99581399999999998</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B390">
         <v>0.99647200000000002</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B391">
         <v>0.996143</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B392">
         <v>0.99581399999999998</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B393">
         <v>0.996143</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B394">
         <v>0.99647200000000002</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B395">
         <v>0.99647200000000002</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B396">
         <v>0.99548499999999995</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B397">
         <v>0.99581399999999998</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B398">
         <v>0.99548499999999995</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B399">
         <v>0.996143</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B400">
         <v>0.996143</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B401">
         <v>0.99647200000000002</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B402">
         <v>0.99745799999999996</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B403">
         <v>0.996143</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B404">
         <v>0.99778699999999998</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B405">
         <v>0.996143</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B406">
         <v>0.99449799999999999</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B407">
         <v>0.996143</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B408">
         <v>0.996143</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B409">
         <v>0.99680100000000005</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B410">
         <v>0.99548499999999995</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B411">
         <v>0.99647200000000002</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B412">
         <v>0.99548499999999995</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B413">
         <v>0.99680100000000005</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B414">
         <v>0.99680100000000005</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B415">
         <v>0.99548499999999995</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B416">
         <v>0.996143</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B417">
         <v>0.99712999999999996</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B418">
         <v>0.99515600000000004</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B419">
         <v>0.99778699999999998</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B420">
         <v>0.996143</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B421">
         <v>0.996143</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B422">
         <v>0.99449799999999999</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B423">
         <v>0.99548499999999995</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B424">
         <v>0.99680100000000005</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B425">
         <v>0.99647200000000002</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B426">
         <v>0.996143</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B427">
         <v>0.99581399999999998</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B428">
         <v>0.99482700000000002</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>2.463069</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B429">
         <v>0.996143</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B430">
         <v>0.99680100000000005</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B431">
         <v>0.99581399999999998</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B432">
         <v>0.996143</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B433">
         <v>0.99515600000000004</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B434">
         <v>0.99647200000000002</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B435">
         <v>0.99680100000000005</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B436">
         <v>0.99581399999999998</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B437">
         <v>0.99712999999999996</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B438">
         <v>0.99680100000000005</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>2.463069</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B439">
         <v>0.99515600000000004</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B440">
         <v>0.99515600000000004</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B441">
         <v>0.99712999999999996</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B442">
         <v>0.996143</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B443">
         <v>0.99647200000000002</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="444" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B444">
         <v>0.99581399999999998</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="445" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B445">
         <v>0.99548499999999995</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="446" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B446">
         <v>0.99548499999999995</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="447" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B447">
         <v>0.99581399999999998</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="448" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B448">
         <v>0.99778699999999998</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B449">
         <v>0.99548499999999995</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B450">
         <v>0.99745799999999996</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B451">
         <v>0.99680100000000005</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B452">
         <v>0.996143</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B453">
         <v>0.99647200000000002</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B454">
         <v>0.996143</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B455">
         <v>0.99515600000000004</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B456">
         <v>0.99515600000000004</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B457">
         <v>0.99482700000000002</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B458">
         <v>0.99548499999999995</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B459">
         <v>0.99712999999999996</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B460">
         <v>0.99416899999999997</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B461">
         <v>0.99647200000000002</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B462">
         <v>0.99515600000000004</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B463">
         <v>0.99581399999999998</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B464">
         <v>0.99581399999999998</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B465">
         <v>0.99745799999999996</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B466">
         <v>0.99778699999999998</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B467">
         <v>0.99548499999999995</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B468">
         <v>0.99515600000000004</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B469">
         <v>0.996143</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B470">
         <v>0.99581399999999998</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B471">
         <v>0.99581399999999998</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B472">
         <v>0.996143</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B473">
         <v>0.99680100000000005</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B474">
         <v>0.99515600000000004</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B475">
         <v>0.99680100000000005</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B476">
         <v>0.99680100000000005</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B477">
         <v>0.99647200000000002</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B478">
         <v>0.99712999999999996</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B479">
         <v>0.996143</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B480">
         <v>0.996143</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B481">
         <v>0.99548499999999995</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B482">
         <v>0.996143</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>2.4663580000000001</v>
       </c>
     </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B483">
         <v>0.99416899999999997</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B484">
         <v>0.99647200000000002</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B485">
         <v>0.99482700000000002</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B486">
         <v>0.99581399999999998</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B487">
         <v>0.99548499999999995</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B488">
         <v>0.99515600000000004</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B489">
         <v>0.996143</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>2.4660289999999998</v>
       </c>
     </row>
-    <row r="490" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B490">
         <v>0.99647200000000002</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B491">
         <v>0.996143</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B492">
         <v>0.99482700000000002</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B493">
         <v>0.996143</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="494" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B494">
         <v>0.99548499999999995</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B495">
         <v>0.99647200000000002</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B496">
         <v>0.99680100000000005</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B497">
         <v>0.996143</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>2.4653710000000002</v>
       </c>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B498">
         <v>0.996143</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>2.463727</v>
       </c>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B499">
         <v>0.99647200000000002</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>2.4657</v>
       </c>
     </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B500">
         <v>0.996143</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>2.4640559999999998</v>
       </c>
     </row>
-    <row r="501" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B501">
         <v>0.99515600000000004</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>2.4650430000000001</v>
       </c>
     </row>
-    <row r="502" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B502">
         <v>0.996143</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>2.4647139999999998</v>
       </c>
     </row>
-    <row r="503" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B503">
         <v>0.99515600000000004</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>2.464385</v>
       </c>
     </row>
-    <row r="504" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C504">
         <v>1.7664439999999999</v>
       </c>
@@ -7803,13 +7803,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G505"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="H2:I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -7832,36 +7832,36 @@
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>AVERAGE(B4:B501)</f>
+        <f t="shared" ref="B2:G2" si="0">AVERAGE(B4:B501)</f>
         <v>-9.4777991967871539E-2</v>
       </c>
       <c r="C2">
-        <f>AVERAGE(C4:C501)</f>
+        <f t="shared" si="0"/>
         <v>-0.10087760160965782</v>
       </c>
       <c r="D2">
-        <f>AVERAGE(D4:D501)</f>
+        <f t="shared" si="0"/>
         <v>-0.10725076907630543</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(E4:E501)</f>
+        <f t="shared" si="0"/>
         <v>-0.11414009638554252</v>
       </c>
       <c r="F2">
-        <f>AVERAGE(F4:F501)</f>
+        <f t="shared" si="0"/>
         <v>-0.26611506827309234</v>
       </c>
       <c r="G2">
-        <f>AVERAGE(G4:G501)</f>
+        <f t="shared" si="0"/>
         <v>-0.14189497188755049</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>-9.1553999999999996E-2</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>-0.10076400000000001</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>-0.14286399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>-9.1883000000000006E-2</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>-0.13497000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>-9.1883000000000006E-2</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>-0.101093</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>-0.13497000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>-0.144508</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>-0.10076400000000001</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>-0.14319299999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>-9.2540999999999998E-2</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>-9.1553999999999996E-2</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>-0.10174999999999999</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>-8.5962999999999998E-2</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>-0.14483699999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>-0.10076400000000001</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>-0.14385100000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>-9.1883000000000006E-2</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>-0.13497000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>-9.1225000000000001E-2</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>-0.101422</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>-0.13497000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>-0.14483699999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>-0.101093</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>-0.14385100000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>-0.13497000000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>-9.1553999999999996E-2</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>-0.102079</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>-0.144508</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>-0.101093</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>-0.14385100000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>-0.135299</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>-9.1883000000000006E-2</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>-0.101422</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>-0.14483699999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>-0.10076400000000001</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>-0.14352200000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>-9.2540999999999998E-2</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>-0.135628</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>-9.1553999999999996E-2</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>-0.102079</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>-0.13497000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>-8.695E-2</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>-0.14483699999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>-0.101093</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>-0.14319299999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>-9.2540999999999998E-2</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>-0.13497000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>-9.1553999999999996E-2</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>-0.15010000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>-0.102079</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>-8.6291999999999994E-2</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>-0.144508</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>-0.10076400000000001</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>-0.14385100000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>-9.2540999999999998E-2</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>-0.135299</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>-9.1553999999999996E-2</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>-0.101422</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>-0.14516599999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>-0.101093</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>-0.14319299999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>-9.1883000000000006E-2</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>-0.135299</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>-0.15010000000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>-0.10174999999999999</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>-0.135299</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>-0.14582400000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>-0.10174999999999999</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>-0.14385100000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>-9.2540999999999998E-2</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>-0.135299</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>-9.2540999999999998E-2</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>-0.101422</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>-0.13497000000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>-8.695E-2</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>-0.14483699999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>-0.10174999999999999</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>-0.14352200000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>-9.1883000000000006E-2</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>-0.135628</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>-0.15010000000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>-0.10174999999999999</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>-0.13497000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>-8.695E-2</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>-0.14549500000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>-0.10076400000000001</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>-0.14352200000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>-0.135299</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>-9.1883000000000006E-2</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>-0.10174999999999999</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>-0.14549500000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>-0.101093</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>-0.14286399999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>-0.135299</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>-9.1883000000000006E-2</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>-0.10174999999999999</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>-8.6291999999999994E-2</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>-0.14582400000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>-0.10174999999999999</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>-0.142535</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>-0.135299</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>-0.10174999999999999</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>-0.14549500000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>-0.101093</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>-0.14319299999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>-0.13595699999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>-9.1883000000000006E-2</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>-0.101422</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>-9.7145999999999996E-2</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>-0.14615300000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>-9.5172000000000007E-2</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>-0.14286399999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>-0.135628</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>-0.102079</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>-8.695E-2</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>-0.14549500000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>-0.14286399999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>-9.1883000000000006E-2</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>-0.13497000000000001</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>-0.10174999999999999</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>-8.695E-2</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>-0.101093</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>-0.14516599999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>-0.14352200000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>-9.1883000000000006E-2</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>-0.135299</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>-0.101093</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>-8.695E-2</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>-0.135299</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>-0.101422</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>-0.14516599999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>-0.14352200000000001</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>-9.1883000000000006E-2</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>-0.135299</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>-0.10174999999999999</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>-0.13497000000000001</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>-0.101422</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>-0.14549500000000001</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>-0.14352200000000001</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>-0.135299</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>-0.10174999999999999</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>-0.15010000000000001</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>-8.695E-2</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>-0.101422</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>-0.14549500000000001</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>-9.1553999999999996E-2</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>-9.2540999999999998E-2</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>-0.13858799999999999</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>-0.10174999999999999</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>-0.13858799999999999</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>-8.6291999999999994E-2</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>-0.14779800000000001</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>-0.10174999999999999</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B110">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>-0.148455</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>-0.137601</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>-0.101093</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>-0.14056199999999999</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>-8.695E-2</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>-0.14812600000000001</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>-0.101093</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>-9.2540999999999998E-2</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B116">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>-0.13793</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>-0.101422</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>-0.14088999999999999</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B118">
         <v>-8.695E-2</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>-0.14812600000000001</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B119">
         <v>-0.101422</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>-0.133655</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>-9.1883000000000006E-2</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>-0.148784</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B121">
         <v>-9.2540999999999998E-2</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>-0.13825899999999999</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B122">
         <v>-0.101093</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>-0.14088999999999999</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>-0.148455</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B124">
         <v>-0.101422</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>-9.1883000000000006E-2</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>-9.2540999999999998E-2</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>-0.13858799999999999</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>-0.101422</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>-0.140233</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>-0.148455</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>-0.101422</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B131">
         <v>-9.2540999999999998E-2</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>-0.13793</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B132">
         <v>-0.101422</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>-0.14056199999999999</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>-0.14812600000000001</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B134">
         <v>-0.10174999999999999</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>-0.133655</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B135">
         <v>-9.1883000000000006E-2</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>-0.148784</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>-9.2212000000000002E-2</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>-0.13825899999999999</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>-0.10174999999999999</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>-0.14056199999999999</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>-9.9777000000000005E-2</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>-0.148455</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>-8.5962999999999998E-2</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B140">
         <v>-0.102408</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>-8.9580999999999994E-2</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>-0.13793</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B142">
         <v>-9.5172000000000007E-2</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>-0.14056199999999999</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>-9.9777000000000005E-2</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>-0.148455</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>-8.7607000000000004E-2</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>-0.10273699999999999</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B146">
         <v>-8.9251999999999998E-2</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>-0.13858799999999999</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>-0.14088999999999999</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B148">
         <v>-9.9777000000000005E-2</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>-0.14812600000000001</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>-8.695E-2</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B150">
         <v>-0.102408</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B151">
         <v>-8.9910000000000004E-2</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>-0.13793</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B152">
         <v>-9.4515000000000002E-2</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>-0.14088999999999999</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B153">
         <v>-0.100106</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>-0.14779800000000001</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B154">
         <v>-8.695E-2</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>-0.102408</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B156">
         <v>-8.8264999999999996E-2</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>-0.13793</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B157">
         <v>-9.4842999999999997E-2</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>-0.14056199999999999</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>-0.100435</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>-0.14812600000000001</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B159">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B160">
         <v>-0.102408</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>-9.0239E-2</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>-0.13793</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>-9.4186000000000006E-2</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>-0.14056199999999999</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>-0.100435</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>-0.14812600000000001</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>-0.133655</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>-0.102079</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B166">
         <v>-9.0239E-2</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>-0.13825899999999999</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>-9.4842999999999997E-2</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>-0.14121900000000001</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>-0.100435</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>-0.148455</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>-0.103066</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>-8.9910000000000004E-2</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>-0.13793</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>-9.4842999999999997E-2</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>-0.14121900000000001</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>-0.100435</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>-0.148784</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B174">
         <v>-8.695E-2</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>-0.102079</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>-8.9910000000000004E-2</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>-0.13858799999999999</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>-9.7145999999999996E-2</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>-0.14056199999999999</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>-9.5172000000000007E-2</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>-0.14779800000000001</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>-0.133655</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>-0.10273699999999999</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>-0.13727200000000001</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>-9.9777000000000005E-2</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>-0.14088999999999999</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>-9.4515000000000002E-2</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>-0.14779800000000001</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>-0.133655</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>-0.102408</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>-8.695E-2</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>-0.137601</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>-0.14121900000000001</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>-9.4515000000000002E-2</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>-0.14779800000000001</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>-0.10273699999999999</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>-0.13793</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>-9.9777000000000005E-2</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>-0.14154800000000001</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>-9.4515000000000002E-2</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>-0.14812600000000001</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>-8.9580999999999994E-2</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B195">
         <v>-0.10273699999999999</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>-8.695E-2</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>-0.13825899999999999</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>-0.14088999999999999</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>-9.4842999999999997E-2</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>-0.14779800000000001</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>-8.9251999999999998E-2</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>-0.102079</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>-0.13727200000000001</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>-9.9777000000000005E-2</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>-0.14121900000000001</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B203">
         <v>-9.4515000000000002E-2</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>-0.14812600000000001</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B204">
         <v>-8.9251999999999998E-2</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B205">
         <v>-0.102408</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B206">
         <v>-8.695E-2</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>-0.13727200000000001</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B207">
         <v>-0.100435</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>-0.14088999999999999</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B208">
         <v>-9.4842999999999997E-2</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>-0.14779800000000001</v>
       </c>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B209">
         <v>-8.9251999999999998E-2</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B210">
         <v>-0.102408</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B211">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>-0.137601</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B212">
         <v>-9.9777000000000005E-2</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>-0.14088999999999999</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B213">
         <v>-9.4515000000000002E-2</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>-0.14779800000000001</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B214">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>-0.133655</v>
       </c>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B215">
         <v>-0.10273699999999999</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B216">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>-0.13727200000000001</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B217">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>-0.140233</v>
       </c>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B218">
         <v>-9.4186000000000006E-2</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>-0.14779800000000001</v>
       </c>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B219">
         <v>-8.9910000000000004E-2</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B220">
         <v>-0.102079</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B221">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>-0.137601</v>
       </c>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B222">
         <v>-9.9777000000000005E-2</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>-0.14154800000000001</v>
       </c>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B223">
         <v>-9.4842999999999997E-2</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>-0.14779800000000001</v>
       </c>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B224">
         <v>-8.9251999999999998E-2</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B225">
         <v>-0.102079</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B226">
         <v>-8.695E-2</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>-0.13727200000000001</v>
       </c>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B227">
         <v>-0.100106</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>-0.14088999999999999</v>
       </c>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B228">
         <v>-9.4186000000000006E-2</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>-0.14812600000000001</v>
       </c>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B229">
         <v>-8.9910000000000004E-2</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B230">
         <v>-0.10273699999999999</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B231">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -12441,7 +12441,7 @@
         <v>-0.13727200000000001</v>
       </c>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B232">
         <v>-0.10076400000000001</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>-0.14121900000000001</v>
       </c>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B233">
         <v>-9.4515000000000002E-2</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>-0.14746899999999999</v>
       </c>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B234">
         <v>-8.9580999999999994E-2</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B235">
         <v>-0.10273699999999999</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B236">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B237">
         <v>-9.9447999999999995E-2</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>-0.14121900000000001</v>
       </c>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B238">
         <v>-9.5172000000000007E-2</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>-0.14713999999999999</v>
       </c>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B239">
         <v>-8.7607000000000004E-2</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B240">
         <v>-0.10273699999999999</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B241">
         <v>-8.8264999999999996E-2</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B242">
         <v>-9.6817E-2</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>-0.14121900000000001</v>
       </c>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B243">
         <v>-9.8131999999999997E-2</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>-0.14746899999999999</v>
       </c>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B244">
         <v>-8.8264999999999996E-2</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B245">
         <v>-0.10273699999999999</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B246">
         <v>-8.7936E-2</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>-0.13793</v>
       </c>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B247">
         <v>-9.6817E-2</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>-0.14154800000000001</v>
       </c>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B248">
         <v>-9.7475000000000006E-2</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>-0.14779800000000001</v>
       </c>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B249">
         <v>-8.7936E-2</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B250">
         <v>-0.103395</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B251">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>-0.13793</v>
       </c>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B252">
         <v>-9.7145999999999996E-2</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>-0.141877</v>
       </c>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B253">
         <v>-9.8461000000000007E-2</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>-0.14713999999999999</v>
       </c>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B254">
         <v>-8.7936E-2</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>-0.133655</v>
       </c>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B255">
         <v>-0.10273699999999999</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B256">
         <v>-8.8594000000000006E-2</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>-0.13727200000000001</v>
       </c>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B257">
         <v>-9.6817E-2</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>-0.14154800000000001</v>
       </c>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B258">
         <v>-9.7475000000000006E-2</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>-0.14713999999999999</v>
       </c>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B259">
         <v>-8.8264999999999996E-2</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B260">
         <v>-0.10273699999999999</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B261">
         <v>-8.8594000000000006E-2</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B262">
         <v>-9.7475000000000006E-2</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>-0.14154800000000001</v>
       </c>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B263">
         <v>-9.7804000000000002E-2</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>-0.14746899999999999</v>
       </c>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B264">
         <v>-8.7936E-2</v>
       </c>
@@ -13101,7 +13101,7 @@
         <v>-0.133655</v>
       </c>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B265">
         <v>-0.103066</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B266">
         <v>-8.8264999999999996E-2</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>-0.13727200000000001</v>
       </c>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B267">
         <v>-9.7145999999999996E-2</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>-0.14154800000000001</v>
       </c>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B268">
         <v>-9.7475000000000006E-2</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>-0.14746899999999999</v>
       </c>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B269">
         <v>-8.8594000000000006E-2</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B270">
         <v>-0.102408</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B271">
         <v>-8.8264999999999996E-2</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>-0.13793</v>
       </c>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B272">
         <v>-9.6817E-2</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>-0.14088999999999999</v>
       </c>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B273">
         <v>-9.7475000000000006E-2</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>-0.14779800000000001</v>
       </c>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B274">
         <v>-8.8264999999999996E-2</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B275">
         <v>-0.10273699999999999</v>
       </c>
@@ -13321,7 +13321,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B276">
         <v>-8.8594000000000006E-2</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B277">
         <v>-9.2540999999999998E-2</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>-0.141877</v>
       </c>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B278">
         <v>-0.100106</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>-0.14713999999999999</v>
       </c>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B279">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>-0.133655</v>
       </c>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B280">
         <v>-0.10273699999999999</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B281">
         <v>-9.0239E-2</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>-0.13727200000000001</v>
       </c>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B282">
         <v>-9.3856999999999996E-2</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>-0.14154800000000001</v>
       </c>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B283">
         <v>-0.10076400000000001</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>-0.14779800000000001</v>
       </c>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B284">
         <v>-8.695E-2</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>-0.133655</v>
       </c>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B285">
         <v>-0.10273699999999999</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B286">
         <v>-9.0567999999999996E-2</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>-0.137601</v>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B287">
         <v>-9.4515000000000002E-2</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>-0.14154800000000001</v>
       </c>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B288">
         <v>-0.10076400000000001</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>-0.14746899999999999</v>
       </c>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B289">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B290">
         <v>-0.102408</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B291">
         <v>-9.0567999999999996E-2</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B292">
         <v>-9.3856999999999996E-2</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>-0.141877</v>
       </c>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B293">
         <v>-0.101093</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>-0.14746899999999999</v>
       </c>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B294">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B295">
         <v>-0.102408</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B296">
         <v>-8.9910000000000004E-2</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>-0.137601</v>
       </c>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B297">
         <v>-9.4186000000000006E-2</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>-0.14154800000000001</v>
       </c>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B298">
         <v>-0.10076400000000001</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>-0.14746899999999999</v>
       </c>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B299">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B300">
         <v>-0.102079</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B301">
         <v>-9.0239E-2</v>
       </c>
@@ -13841,7 +13841,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B302">
         <v>-9.4186000000000006E-2</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>-0.14121900000000001</v>
       </c>
     </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B303">
         <v>-0.101093</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>-0.14713999999999999</v>
       </c>
     </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B304">
         <v>-8.695E-2</v>
       </c>
@@ -13901,7 +13901,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B305">
         <v>-0.100435</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B306">
         <v>-9.3528E-2</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B307">
         <v>-9.0567999999999996E-2</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>-0.142535</v>
       </c>
     </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B308">
         <v>-0.102079</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>-0.14713999999999999</v>
       </c>
     </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B309">
         <v>-8.695E-2</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B310">
         <v>-0.10076400000000001</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B311">
         <v>-9.3856999999999996E-2</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B312">
         <v>-9.1225000000000001E-2</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>-0.141877</v>
       </c>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B313">
         <v>-0.102079</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>-0.14746899999999999</v>
       </c>
     </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B314">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B315">
         <v>-0.101093</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B316">
         <v>-9.3856999999999996E-2</v>
       </c>
@@ -14141,7 +14141,7 @@
         <v>-0.137601</v>
       </c>
     </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B317">
         <v>-9.0897000000000006E-2</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>-0.14154800000000001</v>
       </c>
     </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B318">
         <v>-0.102079</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>-0.14746899999999999</v>
       </c>
     </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B319">
         <v>-8.6621000000000004E-2</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B320">
         <v>-0.101093</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B321">
         <v>-9.3199000000000004E-2</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B322">
         <v>-9.0897000000000006E-2</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>-0.141877</v>
       </c>
     </row>
-    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B323">
         <v>-0.10174999999999999</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>-0.14746899999999999</v>
       </c>
     </row>
-    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B324">
         <v>-8.695E-2</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B325">
         <v>-0.10076400000000001</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B326">
         <v>-9.3199000000000004E-2</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>-0.13793</v>
       </c>
     </row>
-    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B327">
         <v>-9.1225000000000001E-2</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>-0.141877</v>
       </c>
     </row>
-    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B328">
         <v>-0.10174999999999999</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>-0.14713999999999999</v>
       </c>
     </row>
-    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B329">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="330" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B330">
         <v>-0.10076400000000001</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B331">
         <v>-9.3199000000000004E-2</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>-0.13661499999999999</v>
       </c>
     </row>
-    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B332">
         <v>-9.0567999999999996E-2</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>-0.14154800000000001</v>
       </c>
     </row>
-    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B333">
         <v>-0.10174999999999999</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>-0.14746899999999999</v>
       </c>
     </row>
-    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B334">
         <v>-8.6291999999999994E-2</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B335">
         <v>-9.6158999999999994E-2</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B336">
         <v>-9.6817E-2</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>-0.137601</v>
       </c>
     </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B337">
         <v>-8.7607000000000004E-2</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>-0.14154800000000001</v>
       </c>
     </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B338">
         <v>-0.103066</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>-0.14779800000000001</v>
       </c>
     </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B339">
         <v>-8.7936E-2</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="340" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B340">
         <v>-9.8461000000000007E-2</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="341" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B341">
         <v>-9.7145999999999996E-2</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B342">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>-0.141877</v>
       </c>
     </row>
-    <row r="343" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B343">
         <v>-0.10273699999999999</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>-0.14779800000000001</v>
       </c>
     </row>
-    <row r="344" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B344">
         <v>-8.7607000000000004E-2</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="345" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B345">
         <v>-9.8790000000000003E-2</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>-0.15010000000000001</v>
       </c>
     </row>
-    <row r="346" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B346">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -14741,7 +14741,7 @@
         <v>-0.13727200000000001</v>
       </c>
     </row>
-    <row r="347" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B347">
         <v>-8.9251999999999998E-2</v>
       </c>
@@ -14761,7 +14761,7 @@
         <v>-0.141877</v>
       </c>
     </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B348">
         <v>-0.102408</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>-0.14746899999999999</v>
       </c>
     </row>
-    <row r="349" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B349">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="350" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B350">
         <v>-9.8790000000000003E-2</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="351" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B351">
         <v>-9.5501000000000003E-2</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>-0.13727200000000001</v>
       </c>
     </row>
-    <row r="352" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B352">
         <v>-8.8594000000000006E-2</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>-0.14154800000000001</v>
       </c>
     </row>
-    <row r="353" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B353">
         <v>-0.10273699999999999</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>-0.146482</v>
       </c>
     </row>
-    <row r="354" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B354">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -14901,7 +14901,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="355" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B355">
         <v>-9.8461000000000007E-2</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="356" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B356">
         <v>-9.6158999999999994E-2</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="357" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B357">
         <v>-8.8594000000000006E-2</v>
       </c>
@@ -14961,7 +14961,7 @@
         <v>-0.14154800000000001</v>
       </c>
     </row>
-    <row r="358" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B358">
         <v>-0.102408</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>-0.14746899999999999</v>
       </c>
     </row>
-    <row r="359" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B359">
         <v>-8.8264999999999996E-2</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="360" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B360">
         <v>-9.8790000000000003E-2</v>
       </c>
@@ -15021,7 +15021,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="361" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B361">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>-0.13661499999999999</v>
       </c>
     </row>
-    <row r="362" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B362">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>-0.141877</v>
       </c>
     </row>
-    <row r="363" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B363">
         <v>-0.10273699999999999</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>-0.14713999999999999</v>
       </c>
     </row>
-    <row r="364" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B364">
         <v>-8.7936E-2</v>
       </c>
@@ -15101,7 +15101,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="365" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B365">
         <v>-9.8461000000000007E-2</v>
       </c>
@@ -15121,7 +15121,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="366" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B366">
         <v>-9.6158999999999994E-2</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>-0.13727200000000001</v>
       </c>
     </row>
-    <row r="367" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B367">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>-0.14154800000000001</v>
       </c>
     </row>
-    <row r="368" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B368">
         <v>-0.103066</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>-0.14746899999999999</v>
       </c>
     </row>
-    <row r="369" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B369">
         <v>-8.7607000000000004E-2</v>
       </c>
@@ -15201,7 +15201,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="370" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B370">
         <v>-9.8790000000000003E-2</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="371" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B371">
         <v>-9.6488000000000004E-2</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="372" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B372">
         <v>-8.8264999999999996E-2</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>-0.142206</v>
       </c>
     </row>
-    <row r="373" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B373">
         <v>-0.10273699999999999</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>-0.146811</v>
       </c>
     </row>
-    <row r="374" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B374">
         <v>-8.7936E-2</v>
       </c>
@@ -15301,7 +15301,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="375" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B375">
         <v>-9.8131999999999997E-2</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="376" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B376">
         <v>-9.5501000000000003E-2</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>-0.13661499999999999</v>
       </c>
     </row>
-    <row r="377" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B377">
         <v>-8.8264999999999996E-2</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>-0.142206</v>
       </c>
     </row>
-    <row r="378" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B378">
         <v>-0.102408</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>-0.146811</v>
       </c>
     </row>
-    <row r="379" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B379">
         <v>-8.695E-2</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="380" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B380">
         <v>-9.8131999999999997E-2</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="381" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B381">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="382" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B382">
         <v>-8.8594000000000006E-2</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>-0.142206</v>
       </c>
     </row>
-    <row r="383" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B383">
         <v>-0.102408</v>
       </c>
@@ -15481,7 +15481,7 @@
         <v>-0.146811</v>
       </c>
     </row>
-    <row r="384" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B384">
         <v>-8.7936E-2</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="385" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B385">
         <v>-9.8461000000000007E-2</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="386" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B386">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -15541,7 +15541,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="387" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B387">
         <v>-8.7936E-2</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>-0.14286399999999999</v>
       </c>
     </row>
-    <row r="388" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B388">
         <v>-0.103066</v>
       </c>
@@ -15581,7 +15581,7 @@
         <v>-0.14746899999999999</v>
       </c>
     </row>
-    <row r="389" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B389">
         <v>-8.7936E-2</v>
       </c>
@@ -15601,7 +15601,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="390" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B390">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -15621,7 +15621,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="391" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B391">
         <v>-9.6158999999999994E-2</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>-0.13694400000000001</v>
       </c>
     </row>
-    <row r="392" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B392">
         <v>-8.9251999999999998E-2</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>-0.142535</v>
       </c>
     </row>
-    <row r="393" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B393">
         <v>-0.103066</v>
       </c>
@@ -15681,7 +15681,7 @@
         <v>-0.14713999999999999</v>
       </c>
     </row>
-    <row r="394" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B394">
         <v>-8.7607000000000004E-2</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="395" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B395">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="396" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B396">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -15741,7 +15741,7 @@
         <v>-0.13628599999999999</v>
       </c>
     </row>
-    <row r="397" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B397">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>-0.142206</v>
       </c>
     </row>
-    <row r="398" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B398">
         <v>-0.10273699999999999</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>-0.14713999999999999</v>
       </c>
     </row>
-    <row r="399" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B399">
         <v>-8.7936E-2</v>
       </c>
@@ -15801,7 +15801,7 @@
         <v>-0.133655</v>
       </c>
     </row>
-    <row r="400" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B400">
         <v>-9.8461000000000007E-2</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="401" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B401">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -15841,7 +15841,7 @@
         <v>-0.13661499999999999</v>
       </c>
     </row>
-    <row r="402" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B402">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>-0.142206</v>
       </c>
     </row>
-    <row r="403" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B403">
         <v>-0.102408</v>
       </c>
@@ -15881,7 +15881,7 @@
         <v>-0.14713999999999999</v>
       </c>
     </row>
-    <row r="404" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B404">
         <v>-8.7607000000000004E-2</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="405" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B405">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="406" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B406">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>-0.13661499999999999</v>
       </c>
     </row>
-    <row r="407" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B407">
         <v>-8.8264999999999996E-2</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>-0.142535</v>
       </c>
     </row>
-    <row r="408" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B408">
         <v>-0.103066</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>-0.146811</v>
       </c>
     </row>
-    <row r="409" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B409">
         <v>-8.7607000000000004E-2</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="410" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B410">
         <v>-9.8790000000000003E-2</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="411" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B411">
         <v>-9.6158999999999994E-2</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>-0.13628599999999999</v>
       </c>
     </row>
-    <row r="412" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B412">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>-0.142535</v>
       </c>
     </row>
-    <row r="413" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B413">
         <v>-0.102408</v>
       </c>
@@ -16081,7 +16081,7 @@
         <v>-0.14713999999999999</v>
       </c>
     </row>
-    <row r="414" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B414">
         <v>-8.7936E-2</v>
       </c>
@@ -16101,7 +16101,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="415" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B415">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="416" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B416">
         <v>-9.6158999999999994E-2</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>-0.13661499999999999</v>
       </c>
     </row>
-    <row r="417" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B417">
         <v>-8.9251999999999998E-2</v>
       </c>
@@ -16161,7 +16161,7 @@
         <v>-0.141877</v>
       </c>
     </row>
-    <row r="418" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B418">
         <v>-0.103066</v>
       </c>
@@ -16181,7 +16181,7 @@
         <v>-0.146811</v>
       </c>
     </row>
-    <row r="419" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B419">
         <v>-8.7936E-2</v>
       </c>
@@ -16201,7 +16201,7 @@
         <v>-0.13497000000000001</v>
       </c>
     </row>
-    <row r="420" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B420">
         <v>-9.8790000000000003E-2</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="421" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B421">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>-0.13628599999999999</v>
       </c>
     </row>
-    <row r="422" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B422">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>-0.142535</v>
       </c>
     </row>
-    <row r="423" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B423">
         <v>-0.10273699999999999</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>-0.146811</v>
       </c>
     </row>
-    <row r="424" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B424">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="425" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B425">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="426" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B426">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -16341,7 +16341,7 @@
         <v>-0.13595699999999999</v>
       </c>
     </row>
-    <row r="427" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B427">
         <v>-8.8594000000000006E-2</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>-0.142206</v>
       </c>
     </row>
-    <row r="428" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B428">
         <v>-0.103066</v>
       </c>
@@ -16381,7 +16381,7 @@
         <v>-0.146482</v>
       </c>
     </row>
-    <row r="429" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B429">
         <v>-8.7607000000000004E-2</v>
       </c>
@@ -16401,7 +16401,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="430" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B430">
         <v>-9.8790000000000003E-2</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="431" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B431">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>-0.13628599999999999</v>
       </c>
     </row>
-    <row r="432" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B432">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -16461,7 +16461,7 @@
         <v>-0.14286399999999999</v>
       </c>
     </row>
-    <row r="433" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B433">
         <v>-0.102079</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>-0.14615300000000001</v>
       </c>
     </row>
-    <row r="434" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B434">
         <v>-8.7607000000000004E-2</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>-0.13398299999999999</v>
       </c>
     </row>
-    <row r="435" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B435">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -16521,7 +16521,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="436" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B436">
         <v>-9.6158999999999994E-2</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>-0.13661499999999999</v>
       </c>
     </row>
-    <row r="437" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B437">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>-0.142206</v>
       </c>
     </row>
-    <row r="438" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B438">
         <v>-0.10273699999999999</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>-0.146811</v>
       </c>
     </row>
-    <row r="439" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B439">
         <v>-8.7607000000000004E-2</v>
       </c>
@@ -16601,7 +16601,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="440" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B440">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>-0.15010000000000001</v>
       </c>
     </row>
-    <row r="441" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B441">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>-0.13628599999999999</v>
       </c>
     </row>
-    <row r="442" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B442">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>-0.14319299999999999</v>
       </c>
     </row>
-    <row r="443" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B443">
         <v>-0.103066</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>-0.146482</v>
       </c>
     </row>
-    <row r="444" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B444">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -16701,7 +16701,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="445" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B445">
         <v>-9.8790000000000003E-2</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="446" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B446">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>-0.13595699999999999</v>
       </c>
     </row>
-    <row r="447" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B447">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>-0.142535</v>
       </c>
     </row>
-    <row r="448" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B448">
         <v>-0.10273699999999999</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>-0.14615300000000001</v>
       </c>
     </row>
-    <row r="449" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B449">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="450" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B450">
         <v>-9.9447999999999995E-2</v>
       </c>
@@ -16821,7 +16821,7 @@
         <v>-0.15010000000000001</v>
       </c>
     </row>
-    <row r="451" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B451">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -16841,7 +16841,7 @@
         <v>-0.13595699999999999</v>
       </c>
     </row>
-    <row r="452" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B452">
         <v>-8.8594000000000006E-2</v>
       </c>
@@ -16861,7 +16861,7 @@
         <v>-0.142535</v>
       </c>
     </row>
-    <row r="453" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B453">
         <v>-0.102408</v>
       </c>
@@ -16881,7 +16881,7 @@
         <v>-0.146482</v>
       </c>
     </row>
-    <row r="454" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B454">
         <v>-8.7607000000000004E-2</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="455" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B455">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -16921,7 +16921,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="456" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B456">
         <v>-9.6158999999999994E-2</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>-0.13595699999999999</v>
       </c>
     </row>
-    <row r="457" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B457">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>-0.14319299999999999</v>
       </c>
     </row>
-    <row r="458" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B458">
         <v>-0.102408</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>-0.146482</v>
       </c>
     </row>
-    <row r="459" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B459">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="460" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B460">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="461" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B461">
         <v>-9.5501000000000003E-2</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>-0.13628599999999999</v>
       </c>
     </row>
-    <row r="462" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B462">
         <v>-8.8594000000000006E-2</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>-0.14352200000000001</v>
       </c>
     </row>
-    <row r="463" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B463">
         <v>-0.103066</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>-0.14582400000000001</v>
       </c>
     </row>
-    <row r="464" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B464">
         <v>-8.7607000000000004E-2</v>
       </c>
@@ -17101,7 +17101,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="465" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B465">
         <v>-9.9447999999999995E-2</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>-0.149113</v>
       </c>
     </row>
-    <row r="466" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B466">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -17141,7 +17141,7 @@
         <v>-0.13628599999999999</v>
       </c>
     </row>
-    <row r="467" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B467">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -17161,7 +17161,7 @@
         <v>-0.14286399999999999</v>
       </c>
     </row>
-    <row r="468" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B468">
         <v>-0.10273699999999999</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>-0.14615300000000001</v>
       </c>
     </row>
-    <row r="469" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B469">
         <v>-8.7936E-2</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="470" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B470">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -17221,7 +17221,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="471" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B471">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>-0.13595699999999999</v>
       </c>
     </row>
-    <row r="472" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B472">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>-0.14286399999999999</v>
       </c>
     </row>
-    <row r="473" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B473">
         <v>-0.103066</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>-0.146482</v>
       </c>
     </row>
-    <row r="474" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B474">
         <v>-8.8264999999999996E-2</v>
       </c>
@@ -17301,7 +17301,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="475" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B475">
         <v>-9.9447999999999995E-2</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="476" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B476">
         <v>-9.5501000000000003E-2</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>-0.13595699999999999</v>
       </c>
     </row>
-    <row r="477" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B477">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -17361,7 +17361,7 @@
         <v>-0.14286399999999999</v>
       </c>
     </row>
-    <row r="478" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B478">
         <v>-0.10273699999999999</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>-0.14582400000000001</v>
       </c>
     </row>
-    <row r="479" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B479">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="480" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B480">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="481" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B481">
         <v>-9.5829999999999999E-2</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>-0.13595699999999999</v>
       </c>
     </row>
-    <row r="482" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B482">
         <v>-8.8594000000000006E-2</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>-0.14286399999999999</v>
       </c>
     </row>
-    <row r="483" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B483">
         <v>-0.102079</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>-0.146482</v>
       </c>
     </row>
-    <row r="484" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B484">
         <v>-8.7607000000000004E-2</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>-0.13464100000000001</v>
       </c>
     </row>
-    <row r="485" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B485">
         <v>-9.9447999999999995E-2</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>-0.15010000000000001</v>
       </c>
     </row>
-    <row r="486" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B486">
         <v>-9.5501000000000003E-2</v>
       </c>
@@ -17541,7 +17541,7 @@
         <v>-0.13595699999999999</v>
       </c>
     </row>
-    <row r="487" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B487">
         <v>-8.9251999999999998E-2</v>
       </c>
@@ -17561,7 +17561,7 @@
         <v>-0.14352200000000001</v>
       </c>
     </row>
-    <row r="488" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B488">
         <v>-0.102408</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>-0.14615300000000001</v>
       </c>
     </row>
-    <row r="489" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B489">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="490" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B490">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>-0.15010000000000001</v>
       </c>
     </row>
-    <row r="491" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B491">
         <v>-9.5501000000000003E-2</v>
       </c>
@@ -17641,7 +17641,7 @@
         <v>-0.13595699999999999</v>
       </c>
     </row>
-    <row r="492" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B492">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -17661,7 +17661,7 @@
         <v>-0.14352200000000001</v>
       </c>
     </row>
-    <row r="493" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B493">
         <v>-0.10273699999999999</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>-0.14615300000000001</v>
       </c>
     </row>
-    <row r="494" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B494">
         <v>-8.7278999999999995E-2</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>-0.13497000000000001</v>
       </c>
     </row>
-    <row r="495" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B495">
         <v>-9.9777000000000005E-2</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>-0.14944199999999999</v>
       </c>
     </row>
-    <row r="496" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B496">
         <v>-9.5501000000000003E-2</v>
       </c>
@@ -17741,7 +17741,7 @@
         <v>-0.135628</v>
       </c>
     </row>
-    <row r="497" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B497">
         <v>-8.8594000000000006E-2</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>-0.14385100000000001</v>
       </c>
     </row>
-    <row r="498" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B498">
         <v>-0.102079</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>-0.14582400000000001</v>
       </c>
     </row>
-    <row r="499" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B499">
         <v>-8.8923000000000002E-2</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>-0.13431199999999999</v>
       </c>
     </row>
-    <row r="500" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B500">
         <v>-9.6158999999999994E-2</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>-0.14977099999999999</v>
       </c>
     </row>
-    <row r="501" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B501">
         <v>-9.9118999999999999E-2</v>
       </c>
@@ -17838,7 +17838,7 @@
         <v>-0.13595699999999999</v>
       </c>
     </row>
-    <row r="502" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D502">
         <v>-0.104711</v>
       </c>
@@ -17852,7 +17852,7 @@
         <v>-0.14319299999999999</v>
       </c>
     </row>
-    <row r="503" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D503">
         <v>-0.113591</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>-0.14582400000000001</v>
       </c>
     </row>
-    <row r="504" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D504">
         <v>-9.9447999999999995E-2</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>-0.13497000000000001</v>
       </c>
     </row>
-    <row r="505" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F505">
         <v>-0.26225700000000002</v>
       </c>
